--- a/biology/Zoologie/Cryptotriton_nasalis/Cryptotriton_nasalis.xlsx
+++ b/biology/Zoologie/Cryptotriton_nasalis/Cryptotriton_nasalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptotriton nasalis est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptotriton nasalis est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Guatemala dans le département d'Izabal dans la Sierra de Caral ;
 au Honduras dans le département de Cortés entre 1 220 et 2 200 m d'altitude dans la Sierra de Omoa.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 46 mm de longueur totale dont 21 mm de longueur standard et 25 mm de queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 46 mm de longueur totale dont 21 mm de longueur standard et 25 mm de queue.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptotriton wakei[3] a été placé en synonymie avec Cryptotriton nasalis par McCranie et Rovito en 2014[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptotriton wakei a été placé en synonymie avec Cryptotriton nasalis par McCranie et Rovito en 2014.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dunn, 1924 : New salamanders of the genus Oedipus with a synoptical key. Field Museum of Natural History Publication, Zoological Series, vol. 12, no 7, p. 95-100 (texte intégral).</t>
         </is>
